--- a/3_Backtest/Export/actions_20210701_001113.xlsx
+++ b/3_Backtest/Export/actions_20210701_001113.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aron/Documents/GitHub/Data/Stock_Forecast/3_Backtest/Export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808B22D4-DC62-1841-B411-178B8742D153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032D1DF5-61B9-224A-BE87-28A76105D640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AD$174</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -768,12 +771,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -803,13 +812,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="185" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1148,22 +1160,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
+    <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.19921875" customWidth="1"/>
+    <col min="4" max="5" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12.796875" customWidth="1"/>
-    <col min="8" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" customWidth="1"/>
+    <col min="8" max="11" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="27" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -1258,7 +1274,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" hidden="1">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1338,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" hidden="1">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1418,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" hidden="1">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1498,7 +1514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" hidden="1">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1578,7 +1594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" hidden="1">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1658,7 +1674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" hidden="1">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1738,7 +1754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" hidden="1">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1818,7 +1834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" hidden="1">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1898,7 +1914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" hidden="1">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1978,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" hidden="1">
       <c r="A11">
         <v>0</v>
       </c>
@@ -2058,7 +2074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" hidden="1">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2138,7 +2154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" hidden="1">
       <c r="A13">
         <v>0</v>
       </c>
@@ -2218,7 +2234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" hidden="1">
       <c r="A14">
         <v>0</v>
       </c>
@@ -2378,7 +2394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" hidden="1">
       <c r="A16">
         <v>0</v>
       </c>
@@ -2458,7 +2474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" hidden="1">
       <c r="A17">
         <v>0</v>
       </c>
@@ -2698,7 +2714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" hidden="1">
       <c r="A20">
         <v>0</v>
       </c>
@@ -2778,7 +2794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" hidden="1">
       <c r="A21">
         <v>0</v>
       </c>
@@ -2858,7 +2874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" hidden="1">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2938,7 +2954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" hidden="1">
       <c r="A23">
         <v>0</v>
       </c>
@@ -3178,7 +3194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" hidden="1">
       <c r="A26">
         <v>0</v>
       </c>
@@ -3258,7 +3274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" hidden="1">
       <c r="A27">
         <v>0</v>
       </c>
@@ -3338,7 +3354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" hidden="1">
       <c r="A28">
         <v>0</v>
       </c>
@@ -3418,7 +3434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" hidden="1">
       <c r="A29">
         <v>0</v>
       </c>
@@ -3498,7 +3514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" hidden="1">
       <c r="A30">
         <v>0</v>
       </c>
@@ -3578,7 +3594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" hidden="1">
       <c r="A31">
         <v>0</v>
       </c>
@@ -3658,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" hidden="1">
       <c r="A32">
         <v>0</v>
       </c>
@@ -3738,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" hidden="1">
       <c r="A33">
         <v>0</v>
       </c>
@@ -3818,7 +3834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" hidden="1">
       <c r="A34">
         <v>0</v>
       </c>
@@ -3898,7 +3914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" hidden="1">
       <c r="A35">
         <v>0</v>
       </c>
@@ -3978,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" hidden="1">
       <c r="A36">
         <v>0</v>
       </c>
@@ -4058,7 +4074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" hidden="1">
       <c r="A37">
         <v>0</v>
       </c>
@@ -4218,7 +4234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" hidden="1">
       <c r="A39">
         <v>0</v>
       </c>
@@ -4618,7 +4634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" hidden="1">
       <c r="A44">
         <v>0</v>
       </c>
@@ -4778,7 +4794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" hidden="1">
       <c r="A46">
         <v>0</v>
       </c>
@@ -4858,7 +4874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" hidden="1">
       <c r="A47">
         <v>0</v>
       </c>
@@ -4938,7 +4954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" hidden="1">
       <c r="A48">
         <v>0</v>
       </c>
@@ -5018,7 +5034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" hidden="1">
       <c r="A49">
         <v>0</v>
       </c>
@@ -5258,7 +5274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" hidden="1">
       <c r="A52">
         <v>0</v>
       </c>
@@ -5418,7 +5434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" hidden="1">
       <c r="A54">
         <v>0</v>
       </c>
@@ -5498,7 +5514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" hidden="1">
       <c r="A55">
         <v>0</v>
       </c>
@@ -5658,7 +5674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" hidden="1">
       <c r="A57">
         <v>0</v>
       </c>
@@ -5738,7 +5754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" hidden="1">
       <c r="A58">
         <v>0</v>
       </c>
@@ -5818,7 +5834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" hidden="1">
       <c r="A59">
         <v>0</v>
       </c>
@@ -5898,7 +5914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" hidden="1">
       <c r="A60">
         <v>0</v>
       </c>
@@ -5978,7 +5994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" hidden="1">
       <c r="A61">
         <v>0</v>
       </c>
@@ -6058,7 +6074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" hidden="1">
       <c r="A62">
         <v>0</v>
       </c>
@@ -6138,7 +6154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" hidden="1">
       <c r="A63">
         <v>0</v>
       </c>
@@ -6218,7 +6234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" hidden="1">
       <c r="A64">
         <v>0</v>
       </c>
@@ -6298,7 +6314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:30" hidden="1">
       <c r="A65">
         <v>0</v>
       </c>
@@ -6378,7 +6394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:30" hidden="1">
       <c r="A66">
         <v>0</v>
       </c>
@@ -6458,7 +6474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:30">
+    <row r="67" spans="1:30" hidden="1">
       <c r="A67">
         <v>0</v>
       </c>
@@ -6698,7 +6714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:30">
+    <row r="70" spans="1:30" hidden="1">
       <c r="A70">
         <v>0</v>
       </c>
@@ -6778,7 +6794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:30">
+    <row r="71" spans="1:30" hidden="1">
       <c r="A71">
         <v>0</v>
       </c>
@@ -6858,7 +6874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:30">
+    <row r="72" spans="1:30" hidden="1">
       <c r="A72">
         <v>0</v>
       </c>
@@ -7018,7 +7034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:30">
+    <row r="74" spans="1:30" hidden="1">
       <c r="A74">
         <v>0</v>
       </c>
@@ -7098,7 +7114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:30">
+    <row r="75" spans="1:30" hidden="1">
       <c r="A75">
         <v>0</v>
       </c>
@@ -7178,7 +7194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:30">
+    <row r="76" spans="1:30" hidden="1">
       <c r="A76">
         <v>0</v>
       </c>
@@ -7258,7 +7274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:30">
+    <row r="77" spans="1:30" hidden="1">
       <c r="A77">
         <v>0</v>
       </c>
@@ -7338,7 +7354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:30">
+    <row r="78" spans="1:30" hidden="1">
       <c r="A78">
         <v>0</v>
       </c>
@@ -7418,167 +7434,167 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:30">
-      <c r="A79">
-        <v>0</v>
-      </c>
-      <c r="B79" t="s">
+    <row r="79" spans="1:30" s="4" customFormat="1">
+      <c r="A79" s="4">
+        <v>0</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D79">
-        <v>20210701</v>
-      </c>
-      <c r="E79">
+      <c r="D79" s="4">
+        <v>20210701</v>
+      </c>
+      <c r="E79" s="4">
         <v>20210630</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="5">
         <v>4.9074216613173496</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" s="6">
         <v>0.1114057130832543</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H79" s="5">
         <v>48.957421661317348</v>
       </c>
-      <c r="I79" s="2">
+      <c r="I79" s="5">
         <v>50.351082718372339</v>
       </c>
-      <c r="J79" s="2">
+      <c r="J79" s="5">
         <v>47.189454998785259</v>
       </c>
-      <c r="K79" s="2">
+      <c r="K79" s="5">
         <v>49.081885611230128</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="4">
         <v>44.05</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="4">
         <v>44.45</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="4">
         <v>43.9</v>
       </c>
-      <c r="O79">
+      <c r="O79" s="4">
         <v>43.9</v>
       </c>
-      <c r="T79">
-        <v>3.4594763307485857E-2</v>
-      </c>
-      <c r="U79">
-        <v>1</v>
-      </c>
-      <c r="V79">
-        <v>4</v>
-      </c>
-      <c r="W79">
+      <c r="T79" s="4">
+        <v>3.4594763307485857E-2</v>
+      </c>
+      <c r="U79" s="4">
+        <v>1</v>
+      </c>
+      <c r="V79" s="4">
+        <v>4</v>
+      </c>
+      <c r="W79" s="4">
         <v>5.9010827183723356</v>
       </c>
-      <c r="X79">
+      <c r="X79" s="4">
         <v>0.1327577664425722</v>
       </c>
-      <c r="Y79">
+      <c r="Y79" s="4">
         <v>3.2894549987852599</v>
       </c>
-      <c r="Z79">
+      <c r="Z79" s="4">
         <v>7.4930637785541238E-2</v>
       </c>
-      <c r="AA79">
+      <c r="AA79" s="4">
         <v>5.1818856112301361</v>
       </c>
-      <c r="AB79">
+      <c r="AB79" s="4">
         <v>0.1180383966111648</v>
       </c>
-      <c r="AC79">
-        <v>1</v>
-      </c>
-      <c r="AD79">
+      <c r="AC79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD79" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:30">
-      <c r="A80">
-        <v>0</v>
-      </c>
-      <c r="B80" t="s">
+    <row r="80" spans="1:30" s="4" customFormat="1">
+      <c r="A80" s="4">
+        <v>0</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="4">
         <v>20210702</v>
       </c>
-      <c r="E80">
-        <v>20210701</v>
-      </c>
-      <c r="F80" s="2">
+      <c r="E80" s="4">
+        <v>20210701</v>
+      </c>
+      <c r="F80" s="5">
         <v>2.419311875522141</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G80" s="6">
         <v>5.4921949501070162E-2</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H80" s="5">
         <v>46.469311875522138</v>
       </c>
-      <c r="I80" s="2">
+      <c r="I80" s="5">
         <v>47.90191596233845</v>
       </c>
-      <c r="J80" s="2">
+      <c r="J80" s="5">
         <v>45.778197553485633</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K80" s="5">
         <v>46.521962536901228</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="4">
         <v>44.05</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="4">
         <v>44.45</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="4">
         <v>43.9</v>
       </c>
-      <c r="O80">
+      <c r="O80" s="4">
         <v>43.9</v>
       </c>
-      <c r="T80">
-        <v>3.4594763307485857E-2</v>
-      </c>
-      <c r="U80">
-        <v>1</v>
-      </c>
-      <c r="V80">
-        <v>4</v>
-      </c>
-      <c r="W80">
+      <c r="T80" s="4">
+        <v>3.4594763307485857E-2</v>
+      </c>
+      <c r="U80" s="4">
+        <v>1</v>
+      </c>
+      <c r="V80" s="4">
+        <v>4</v>
+      </c>
+      <c r="W80" s="4">
         <v>3.4519159623384472</v>
       </c>
-      <c r="X80">
+      <c r="X80" s="4">
         <v>7.7658401852383499E-2</v>
       </c>
-      <c r="Y80">
+      <c r="Y80" s="4">
         <v>1.8781975534856341</v>
       </c>
-      <c r="Z80">
+      <c r="Z80" s="4">
         <v>4.2783543359581649E-2</v>
       </c>
-      <c r="AA80">
+      <c r="AA80" s="4">
         <v>2.6219625369012358</v>
       </c>
-      <c r="AB80">
+      <c r="AB80" s="4">
         <v>5.9725798107089667E-2</v>
       </c>
-      <c r="AC80">
-        <v>1</v>
-      </c>
-      <c r="AD80">
+      <c r="AC80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD80" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:30">
+    <row r="81" spans="1:30" hidden="1">
       <c r="A81">
         <v>0</v>
       </c>
@@ -7658,7 +7674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:30">
+    <row r="82" spans="1:30" hidden="1">
       <c r="A82">
         <v>0</v>
       </c>
@@ -7738,7 +7754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:30">
+    <row r="83" spans="1:30" hidden="1">
       <c r="A83">
         <v>0</v>
       </c>
@@ -7818,7 +7834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:30">
+    <row r="84" spans="1:30" hidden="1">
       <c r="A84">
         <v>0</v>
       </c>
@@ -8138,7 +8154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:30">
+    <row r="88" spans="1:30" hidden="1">
       <c r="A88">
         <v>0</v>
       </c>
@@ -8218,7 +8234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:30">
+    <row r="89" spans="1:30" hidden="1">
       <c r="A89">
         <v>0</v>
       </c>
@@ -8458,7 +8474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:30">
+    <row r="92" spans="1:30" hidden="1">
       <c r="A92">
         <v>0</v>
       </c>
@@ -8618,7 +8634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:30">
+    <row r="94" spans="1:30" hidden="1">
       <c r="A94">
         <v>0</v>
       </c>
@@ -8698,7 +8714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:30">
+    <row r="95" spans="1:30" hidden="1">
       <c r="A95">
         <v>0</v>
       </c>
@@ -8938,7 +8954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:30">
+    <row r="98" spans="1:30" hidden="1">
       <c r="A98">
         <v>0</v>
       </c>
@@ -9018,7 +9034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:30">
+    <row r="99" spans="1:30" hidden="1">
       <c r="A99">
         <v>0</v>
       </c>
@@ -9098,7 +9114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:30">
+    <row r="100" spans="1:30" hidden="1">
       <c r="A100">
         <v>0</v>
       </c>
@@ -9178,7 +9194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:30">
+    <row r="101" spans="1:30" hidden="1">
       <c r="A101">
         <v>0</v>
       </c>
@@ -9258,7 +9274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:30">
+    <row r="102" spans="1:30" hidden="1">
       <c r="A102">
         <v>0</v>
       </c>
@@ -9338,7 +9354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:30">
+    <row r="103" spans="1:30" hidden="1">
       <c r="A103">
         <v>0</v>
       </c>
@@ -9418,7 +9434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:30">
+    <row r="104" spans="1:30" hidden="1">
       <c r="A104">
         <v>0</v>
       </c>
@@ -9498,7 +9514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:30">
+    <row r="105" spans="1:30" hidden="1">
       <c r="A105">
         <v>0</v>
       </c>
@@ -9578,7 +9594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:30">
+    <row r="106" spans="1:30" hidden="1">
       <c r="A106">
         <v>0</v>
       </c>
@@ -9658,7 +9674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:30">
+    <row r="107" spans="1:30" hidden="1">
       <c r="A107">
         <v>0</v>
       </c>
@@ -9738,7 +9754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:30">
+    <row r="108" spans="1:30" hidden="1">
       <c r="A108">
         <v>0</v>
       </c>
@@ -9898,7 +9914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:30">
+    <row r="110" spans="1:30" hidden="1">
       <c r="A110">
         <v>0</v>
       </c>
@@ -9978,7 +9994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:30">
+    <row r="111" spans="1:30" hidden="1">
       <c r="A111">
         <v>0</v>
       </c>
@@ -10058,7 +10074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:30">
+    <row r="112" spans="1:30" hidden="1">
       <c r="A112">
         <v>0</v>
       </c>
@@ -10138,7 +10154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:30">
+    <row r="113" spans="1:30" hidden="1">
       <c r="A113">
         <v>0</v>
       </c>
@@ -10298,7 +10314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:30">
+    <row r="115" spans="1:30" hidden="1">
       <c r="A115">
         <v>0</v>
       </c>
@@ -10378,7 +10394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:30">
+    <row r="116" spans="1:30" hidden="1">
       <c r="A116">
         <v>0</v>
       </c>
@@ -10618,7 +10634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:30">
+    <row r="119" spans="1:30" hidden="1">
       <c r="A119">
         <v>0</v>
       </c>
@@ -10778,7 +10794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:30">
+    <row r="121" spans="1:30" hidden="1">
       <c r="A121">
         <v>0</v>
       </c>
@@ -10938,7 +10954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:30">
+    <row r="123" spans="1:30" hidden="1">
       <c r="A123">
         <v>0</v>
       </c>
@@ -11018,7 +11034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:30">
+    <row r="124" spans="1:30" hidden="1">
       <c r="A124">
         <v>0</v>
       </c>
@@ -11098,7 +11114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:30">
+    <row r="125" spans="1:30" hidden="1">
       <c r="A125">
         <v>0</v>
       </c>
@@ -11338,7 +11354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:30">
+    <row r="128" spans="1:30" hidden="1">
       <c r="A128">
         <v>0</v>
       </c>
@@ -11418,7 +11434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:30">
+    <row r="129" spans="1:30" hidden="1">
       <c r="A129">
         <v>0</v>
       </c>
@@ -11498,7 +11514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:30">
+    <row r="130" spans="1:30" hidden="1">
       <c r="A130">
         <v>0</v>
       </c>
@@ -11578,7 +11594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:30">
+    <row r="131" spans="1:30" hidden="1">
       <c r="A131">
         <v>0</v>
       </c>
@@ -11738,7 +11754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:30">
+    <row r="133" spans="1:30" hidden="1">
       <c r="A133">
         <v>0</v>
       </c>
@@ -11818,7 +11834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:30">
+    <row r="134" spans="1:30" hidden="1">
       <c r="A134">
         <v>0</v>
       </c>
@@ -12138,7 +12154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:30">
+    <row r="138" spans="1:30" hidden="1">
       <c r="A138">
         <v>0</v>
       </c>
@@ -12218,7 +12234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:30">
+    <row r="139" spans="1:30" hidden="1">
       <c r="A139">
         <v>0</v>
       </c>
@@ -12298,7 +12314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:30">
+    <row r="140" spans="1:30" hidden="1">
       <c r="A140">
         <v>0</v>
       </c>
@@ -12378,7 +12394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:30">
+    <row r="141" spans="1:30" hidden="1">
       <c r="A141">
         <v>0</v>
       </c>
@@ -12458,7 +12474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:30">
+    <row r="142" spans="1:30" hidden="1">
       <c r="A142">
         <v>0</v>
       </c>
@@ -12538,7 +12554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:30">
+    <row r="143" spans="1:30" hidden="1">
       <c r="A143">
         <v>0</v>
       </c>
@@ -12618,7 +12634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:30">
+    <row r="144" spans="1:30" hidden="1">
       <c r="A144">
         <v>0</v>
       </c>
@@ -12858,7 +12874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:30">
+    <row r="147" spans="1:30" hidden="1">
       <c r="A147">
         <v>0</v>
       </c>
@@ -12938,7 +12954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:30">
+    <row r="148" spans="1:30" hidden="1">
       <c r="A148">
         <v>0</v>
       </c>
@@ -13018,7 +13034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:30">
+    <row r="149" spans="1:30" hidden="1">
       <c r="A149">
         <v>0</v>
       </c>
@@ -13098,7 +13114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:30">
+    <row r="150" spans="1:30" hidden="1">
       <c r="A150">
         <v>0</v>
       </c>
@@ -13178,7 +13194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:30">
+    <row r="151" spans="1:30" hidden="1">
       <c r="A151">
         <v>0</v>
       </c>
@@ -13258,7 +13274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:30">
+    <row r="152" spans="1:30" hidden="1">
       <c r="A152">
         <v>0</v>
       </c>
@@ -13498,87 +13514,87 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:30">
-      <c r="A155">
-        <v>0</v>
-      </c>
-      <c r="B155" t="s">
+    <row r="155" spans="1:30" s="4" customFormat="1">
+      <c r="A155" s="4">
+        <v>0</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D155">
-        <v>20210701</v>
-      </c>
-      <c r="E155">
+      <c r="D155" s="4">
+        <v>20210701</v>
+      </c>
+      <c r="E155" s="4">
         <v>20210630</v>
       </c>
-      <c r="F155" s="2">
+      <c r="F155" s="5">
         <v>3.8821995960414379</v>
       </c>
-      <c r="G155" s="3">
+      <c r="G155" s="6">
         <v>8.2599991405136991E-2</v>
       </c>
-      <c r="H155" s="2">
+      <c r="H155" s="5">
         <v>50.882199596041438</v>
       </c>
-      <c r="I155" s="2">
+      <c r="I155" s="5">
         <v>51.31191203450561</v>
       </c>
-      <c r="J155" s="2">
+      <c r="J155" s="5">
         <v>50.363633212518693</v>
       </c>
-      <c r="K155" s="2">
+      <c r="K155" s="5">
         <v>51.364659366875877</v>
       </c>
-      <c r="L155">
+      <c r="L155" s="4">
         <v>47</v>
       </c>
-      <c r="M155">
+      <c r="M155" s="4">
         <v>47.4</v>
       </c>
-      <c r="N155">
+      <c r="N155" s="4">
         <v>46.95</v>
       </c>
-      <c r="O155">
+      <c r="O155" s="4">
         <v>47.15</v>
       </c>
-      <c r="T155">
-        <v>3.4594763307485857E-2</v>
-      </c>
-      <c r="U155">
-        <v>1</v>
-      </c>
-      <c r="V155">
-        <v>4</v>
-      </c>
-      <c r="W155">
+      <c r="T155" s="4">
+        <v>3.4594763307485857E-2</v>
+      </c>
+      <c r="U155" s="4">
+        <v>1</v>
+      </c>
+      <c r="V155" s="4">
+        <v>4</v>
+      </c>
+      <c r="W155" s="4">
         <v>3.9119120345056122</v>
       </c>
-      <c r="X155">
+      <c r="X155" s="4">
         <v>8.2529789757502359E-2</v>
       </c>
-      <c r="Y155">
+      <c r="Y155" s="4">
         <v>3.4136332125186901</v>
       </c>
-      <c r="Z155">
+      <c r="Z155" s="4">
         <v>7.2707842652155255E-2</v>
       </c>
-      <c r="AA155">
+      <c r="AA155" s="4">
         <v>4.2146593668758854</v>
       </c>
-      <c r="AB155">
+      <c r="AB155" s="4">
         <v>8.9388321672871376E-2</v>
       </c>
-      <c r="AC155">
-        <v>1</v>
-      </c>
-      <c r="AD155">
+      <c r="AC155" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD155" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:30">
+    <row r="156" spans="1:30" hidden="1">
       <c r="A156">
         <v>0</v>
       </c>
@@ -13658,7 +13674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:30">
+    <row r="157" spans="1:30" hidden="1">
       <c r="A157">
         <v>0</v>
       </c>
@@ -13898,7 +13914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:30">
+    <row r="160" spans="1:30" hidden="1">
       <c r="A160">
         <v>0</v>
       </c>
@@ -14218,7 +14234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:30">
+    <row r="164" spans="1:30" hidden="1">
       <c r="A164">
         <v>0</v>
       </c>
@@ -14298,7 +14314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:30">
+    <row r="165" spans="1:30" hidden="1">
       <c r="A165">
         <v>0</v>
       </c>
@@ -14378,7 +14394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:30">
+    <row r="166" spans="1:30" hidden="1">
       <c r="A166">
         <v>0</v>
       </c>
@@ -14458,7 +14474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:30">
+    <row r="167" spans="1:30" hidden="1">
       <c r="A167">
         <v>0</v>
       </c>
@@ -14538,7 +14554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:30">
+    <row r="168" spans="1:30" hidden="1">
       <c r="A168">
         <v>0</v>
       </c>
@@ -14618,7 +14634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:30">
+    <row r="169" spans="1:30" hidden="1">
       <c r="A169">
         <v>0</v>
       </c>
@@ -14698,7 +14714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:30">
+    <row r="170" spans="1:30" hidden="1">
       <c r="A170">
         <v>0</v>
       </c>
@@ -14778,7 +14794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:30">
+    <row r="171" spans="1:30" hidden="1">
       <c r="A171">
         <v>0</v>
       </c>
@@ -14858,7 +14874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:30">
+    <row r="172" spans="1:30" hidden="1">
       <c r="A172">
         <v>0</v>
       </c>
@@ -14938,7 +14954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:30">
+    <row r="173" spans="1:30" hidden="1">
       <c r="A173">
         <v>0</v>
       </c>
@@ -15018,7 +15034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:30">
+    <row r="174" spans="1:30" hidden="1">
       <c r="A174">
         <v>0</v>
       </c>
@@ -15099,6 +15115,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AD174" xr:uid="{033B0D46-A733-9D46-9231-7D4CE801BC83}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="greaterThan" val="0.05"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
